--- a/SampleData2.xlsx
+++ b/SampleData2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MGS\blgorman_github\SimpleFunctionAppDemoTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F009E9D-3338-47E5-801D-B1C2D5C5E72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159F4CB1-3332-467E-A5F1-7A26A45B60B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33030" yWindow="1935" windowWidth="21045" windowHeight="13410" xr2:uid="{BF97E0CF-DAA9-4C4F-95FA-3E05E477F2C2}"/>
+    <workbookView xWindow="33180" yWindow="2610" windowWidth="21045" windowHeight="13410" xr2:uid="{BF97E0CF-DAA9-4C4F-95FA-3E05E477F2C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>UniqueId</t>
   </si>
@@ -96,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,8 +129,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{1A40D0A2-7BC1-4EB7-9D61-574F829837C9}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -442,20 +467,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF29365-11DF-4658-BDE1-6AFC52C1F0BC}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,78 +490,60 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>6</v>
-      </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
